--- a/consoles_tratado_completo.xlsx
+++ b/consoles_tratado_completo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:G225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>marcas</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>faixa_preco</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>edicao_especial</t>
         </is>
@@ -484,10 +489,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Médio</t>
         </is>
       </c>
-      <c r="F2" t="b">
+      <c r="G2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -510,10 +520,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Médio</t>
         </is>
       </c>
-      <c r="F3" t="b">
+      <c r="G3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -536,10 +551,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Caro</t>
         </is>
       </c>
-      <c r="F4" t="b">
+      <c r="G4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -562,10 +582,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F5" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -588,10 +613,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Médio</t>
         </is>
       </c>
-      <c r="F6" t="b">
+      <c r="G6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -614,10 +644,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Médio</t>
         </is>
       </c>
-      <c r="F7" t="b">
+      <c r="G7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -640,10 +675,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Médio</t>
         </is>
       </c>
-      <c r="F8" t="b">
+      <c r="G8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -666,10 +706,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F9" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -692,10 +737,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>Médio</t>
         </is>
       </c>
-      <c r="F10" t="b">
+      <c r="G10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -718,10 +768,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>Médio</t>
         </is>
       </c>
-      <c r="F11" t="b">
+      <c r="G11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -744,10 +799,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>Médio</t>
         </is>
       </c>
-      <c r="F12" t="b">
+      <c r="G12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -770,10 +830,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>Caro</t>
         </is>
       </c>
-      <c r="F13" t="b">
+      <c r="G13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -796,10 +861,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>Caro</t>
         </is>
       </c>
-      <c r="F14" t="b">
+      <c r="G14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -822,10 +892,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>Caro</t>
         </is>
       </c>
-      <c r="F15" t="b">
+      <c r="G15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -848,10 +923,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F16" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -874,10 +954,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F17" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -900,10 +985,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F18" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -926,10 +1016,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>Caro</t>
         </is>
       </c>
-      <c r="F19" t="b">
+      <c r="G19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -952,10 +1047,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F20" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -978,10 +1078,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>Caro</t>
         </is>
       </c>
-      <c r="F21" t="b">
+      <c r="G21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1004,10 +1109,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F22" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1030,10 +1140,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F23" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1056,10 +1171,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F24" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1082,10 +1202,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>Médio</t>
         </is>
       </c>
-      <c r="F25" t="b">
+      <c r="G25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1108,10 +1233,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F26" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1134,10 +1264,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>Médio</t>
         </is>
       </c>
-      <c r="F27" t="b">
+      <c r="G27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1160,10 +1295,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F28" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1186,10 +1326,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F29" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1212,10 +1357,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F30" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1238,10 +1388,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F31" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1264,10 +1419,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>Caro</t>
         </is>
       </c>
-      <c r="F32" t="b">
+      <c r="G32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1290,10 +1450,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>Médio</t>
         </is>
       </c>
-      <c r="F33" t="b">
+      <c r="G33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1316,10 +1481,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>Médio</t>
         </is>
       </c>
-      <c r="F34" t="b">
+      <c r="G34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1342,10 +1512,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F35" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1368,10 +1543,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>Médio</t>
         </is>
       </c>
-      <c r="F36" t="b">
+      <c r="G36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1394,10 +1574,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>Médio</t>
         </is>
       </c>
-      <c r="F37" t="b">
+      <c r="G37" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1420,10 +1605,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F38" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1446,10 +1636,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F39" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1472,10 +1667,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F40" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1498,10 +1698,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F41" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1524,10 +1729,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F42" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1550,10 +1760,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F43" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1576,10 +1791,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F44" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1602,10 +1822,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>Médio</t>
         </is>
       </c>
-      <c r="F45" t="b">
+      <c r="G45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1628,10 +1853,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>Médio</t>
         </is>
       </c>
-      <c r="F46" t="b">
+      <c r="G46" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1654,10 +1884,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F47" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G47" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1680,10 +1915,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F48" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1706,10 +1946,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>Caro</t>
         </is>
       </c>
-      <c r="F49" t="b">
+      <c r="G49" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1732,10 +1977,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>Caro</t>
         </is>
       </c>
-      <c r="F50" t="b">
+      <c r="G50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1758,10 +2008,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F51" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1784,10 +2039,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F52" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1810,10 +2070,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F53" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1836,10 +2101,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>Médio</t>
         </is>
       </c>
-      <c r="F54" t="b">
+      <c r="G54" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1862,10 +2132,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F55" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1888,10 +2163,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F56" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1914,10 +2194,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F57" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1940,10 +2225,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F58" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1966,10 +2256,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F59" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1992,10 +2287,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>Médio</t>
         </is>
       </c>
-      <c r="F60" t="b">
+      <c r="G60" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2018,10 +2318,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F61" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2044,10 +2349,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F62" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G62" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2070,10 +2380,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F63" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2096,10 +2411,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F64" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2122,10 +2442,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F65" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2148,10 +2473,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F66" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G66" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2174,10 +2504,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F67" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2200,10 +2535,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F68" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G68" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2226,10 +2566,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F69" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2252,10 +2597,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F70" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2278,10 +2628,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F71" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G71" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2304,10 +2659,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F72" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G72" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2330,10 +2690,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F73" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G73" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2356,10 +2721,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F74" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G74" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2382,10 +2752,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F75" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2408,10 +2783,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F76" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2434,10 +2814,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F77" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2460,10 +2845,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F78" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2486,10 +2876,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F79" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2512,10 +2907,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F80" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2538,10 +2938,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F81" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G81" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2564,10 +2969,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F82" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2590,10 +3000,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F83" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2616,10 +3031,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F84" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G84" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2642,10 +3062,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F85" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2668,10 +3093,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F86" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G86" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2694,10 +3124,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F87" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2720,10 +3155,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F88" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2746,10 +3186,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F89" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2772,10 +3217,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F90" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2798,10 +3248,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F91" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G91" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2824,10 +3279,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F92" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G92" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2850,10 +3310,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F93" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2876,10 +3341,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F94" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2902,10 +3372,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F95" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G95" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2928,10 +3403,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
           <t>Médio</t>
         </is>
       </c>
-      <c r="F96" t="b">
+      <c r="G96" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2954,10 +3434,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F97" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G97" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2980,10 +3465,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F98" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G98" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3006,10 +3496,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F99" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3032,10 +3527,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F100" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G100" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3058,10 +3558,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F101" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G101" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3084,10 +3589,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F102" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G102" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3110,10 +3620,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F103" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G103" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3136,10 +3651,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F104" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G104" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3162,10 +3682,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F105" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G105" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3188,10 +3713,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F106" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G106" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3214,10 +3744,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F107" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G107" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3240,10 +3775,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F108" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G108" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3266,10 +3806,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F109" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G109" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3292,10 +3837,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F110" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G110" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3318,10 +3868,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F111" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G111" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3344,10 +3899,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F112" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G112" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3370,10 +3930,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F113" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G113" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3396,10 +3961,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F114" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G114" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3422,10 +3992,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F115" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G115" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3448,10 +4023,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F116" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G116" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3474,10 +4054,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F117" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3500,10 +4085,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F118" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G118" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3526,10 +4116,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F119" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G119" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3552,10 +4147,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F120" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3578,10 +4178,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F121" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3604,10 +4209,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F122" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3630,10 +4240,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F123" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3656,10 +4271,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F124" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3682,10 +4302,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F125" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3708,10 +4333,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
           <t>Médio</t>
         </is>
       </c>
-      <c r="F126" t="b">
+      <c r="G126" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3734,10 +4364,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F127" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G127" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3760,10 +4395,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F128" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3786,10 +4426,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F129" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3812,10 +4457,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F130" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3838,10 +4488,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F131" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3864,10 +4519,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F132" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3890,10 +4550,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F133" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3916,10 +4581,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F134" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3942,10 +4612,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F135" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3968,10 +4643,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F136" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G136" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3994,10 +4674,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F137" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G137" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4020,10 +4705,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F138" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G138" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4046,10 +4736,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F139" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G139" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4072,10 +4767,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F140" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4098,10 +4798,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F141" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4124,10 +4829,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F142" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4150,10 +4860,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F143" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4176,10 +4891,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F144" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4202,10 +4922,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F145" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G145" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4228,10 +4953,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F146" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4254,10 +4984,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F147" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G147" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4280,10 +5015,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F148" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G148" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4306,10 +5046,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F149" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G149" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4332,10 +5077,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F150" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G150" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4358,10 +5108,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F151" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G151" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4384,10 +5139,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F152" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G152" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4410,10 +5170,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F153" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G153" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4436,10 +5201,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F154" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G154" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4462,10 +5232,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F155" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G155" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4488,10 +5263,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F156" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G156" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4514,10 +5294,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F157" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G157" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4540,10 +5325,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F158" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G158" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4566,10 +5356,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F159" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G159" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4592,10 +5387,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F160" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G160" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4618,10 +5418,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F161" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G161" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4644,10 +5449,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F162" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G162" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4670,10 +5480,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F163" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G163" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4696,10 +5511,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F164" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G164" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4722,10 +5542,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F165" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G165" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4748,10 +5573,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F166" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G166" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4774,10 +5604,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F167" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G167" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4800,10 +5635,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F168" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G168" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4826,10 +5666,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F169" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G169" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4852,10 +5697,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F170" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G170" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4878,10 +5728,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F171" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G171" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4904,10 +5759,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F172" t="b">
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G172" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4930,10 +5790,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F173" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G173" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4956,10 +5821,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F174" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G174" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4982,10 +5852,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F175" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5008,10 +5883,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F176" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5034,10 +5914,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F177" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5060,10 +5945,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F178" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5086,10 +5976,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F179" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5112,10 +6007,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F180" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5138,10 +6038,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F181" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5164,10 +6069,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F182" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5190,10 +6100,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F183" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5216,10 +6131,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F184" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5242,10 +6162,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F185" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5268,10 +6193,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F186" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5294,10 +6224,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F187" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G187" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5320,10 +6255,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F188" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G188" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5346,10 +6286,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F189" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G189" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5372,10 +6317,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F190" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G190" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5398,10 +6348,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F191" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G191" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5424,10 +6379,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F192" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G192" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5450,10 +6410,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F193" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G193" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5476,10 +6441,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F194" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G194" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5502,10 +6472,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F195" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G195" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5528,10 +6503,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F196" t="b">
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G196" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5554,10 +6534,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F197" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G197" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5580,10 +6565,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F198" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G198" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5606,10 +6596,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F199" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5632,10 +6627,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F200" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G200" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5658,10 +6658,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F201" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G201" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5684,10 +6689,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F202" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G202" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5710,10 +6720,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
           <t>Médio</t>
         </is>
       </c>
-      <c r="F203" t="b">
+      <c r="G203" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5736,10 +6751,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F204" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5762,10 +6782,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F205" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5788,10 +6813,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F206" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5814,10 +6844,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F207" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5840,10 +6875,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F208" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5866,10 +6906,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F209" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G209" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5892,10 +6937,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F210" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G210" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5918,10 +6968,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F211" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5944,10 +6999,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F212" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5970,10 +7030,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F213" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5996,10 +7061,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F214" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6022,10 +7092,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F215" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6048,10 +7123,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F216" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6074,10 +7154,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F217" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6100,10 +7185,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F218" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6126,10 +7216,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F219" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6152,10 +7247,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F220" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G220" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6178,10 +7278,15 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F221" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6204,10 +7309,15 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F222" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6230,10 +7340,15 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F223" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6256,10 +7371,15 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F224" t="b">
+          <t>Xbox</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6282,10 +7402,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Barato</t>
-        </is>
-      </c>
-      <c r="F225" t="b">
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Barato</t>
+        </is>
+      </c>
+      <c r="G225" t="b">
         <v>0</v>
       </c>
     </row>
